--- a/src/tools/conf2conv/excel/newcardwarehouse.xlsx
+++ b/src/tools/conf2conv/excel/newcardwarehouse.xlsx
@@ -1,43 +1,922 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView windowWidth="26145" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
+  <si>
+    <t>唯一ID</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>物品ID</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>产出时间</t>
+  </si>
+  <si>
+    <t>概率</t>
+  </si>
+  <si>
+    <t>货币影响</t>
+  </si>
+  <si>
+    <t>保底权重</t>
+  </si>
+  <si>
+    <t>全十保底</t>
+  </si>
+  <si>
+    <t>性格材料标准</t>
+  </si>
+  <si>
+    <t>性格材料标准区间</t>
+  </si>
+  <si>
+    <t>递减值</t>
+  </si>
+  <si>
+    <t>产出地点编号</t>
+  </si>
+  <si>
+    <t>产出地点提示</t>
+  </si>
+  <si>
+    <t>产出名言</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>influence</t>
+  </si>
+  <si>
+    <t>Proportion1</t>
+  </si>
+  <si>
+    <t>Proportion2</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>descending</t>
+  </si>
+  <si>
+    <t>Tips1</t>
+  </si>
+  <si>
+    <t>Tips2</t>
+  </si>
+  <si>
+    <t>dictum</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>30000001:6;30000002:7;30000003:7;30000004:3;30000005:8;30000006:5;</t>
+  </si>
+  <si>
+    <t>30000001:8:4;30000002:9:5;30000003:9:5;30000004:5:1;30000005:10:6;30000006:7:3;</t>
+  </si>
+  <si>
+    <t>悬空城堡</t>
+  </si>
+  <si>
+    <t>我不会输！战斗还没有结束！</t>
+  </si>
+  <si>
+    <t>30000001:1;30000002:8;30000003:2;30000004:6;30000005:5;30000006:7;</t>
+  </si>
+  <si>
+    <t>30000001:3:1;30000002:10:6;30000003:4:1;30000004:8:4;30000005:7:1;30000006:9:5;</t>
+  </si>
+  <si>
+    <t>有幸遇到你，最了不起的你。</t>
+  </si>
+  <si>
+    <t>30000001:5;30000002:7;30000003:4;30000004:4;30000005:5;30000006:4;</t>
+  </si>
+  <si>
+    <t>30000001:6:4;30000002:8:6;30000003:5:3;30000004:5:3;30000005:6:4;30000006:5:3;</t>
+  </si>
+  <si>
+    <t>光之领域</t>
+  </si>
+  <si>
+    <t>有点遗憾，我已经尽力了。</t>
+  </si>
+  <si>
+    <t>30000001:6;30000002:7;30000003:3;30000004:2;30000005:5;30000006:1;</t>
+  </si>
+  <si>
+    <t>30000001:8:4;30000002:9:5;30000003:5:1;30000004:4:1;30000005:7:3;30000006:3:1;</t>
+  </si>
+  <si>
+    <t>游魂墓地</t>
+  </si>
+  <si>
+    <t>看准机会就出手。</t>
+  </si>
+  <si>
+    <t>30000001:8;30000002:3;30000003:10;30000004:7;30000005:2;30000006:1;</t>
+  </si>
+  <si>
+    <t>30000001:10:6;30000002:5:1;30000003:10:8;30000004:9:5;30000005:4:1;30000006:3:1;</t>
+  </si>
+  <si>
+    <t>老子非把你打成包子不成。</t>
+  </si>
+  <si>
+    <t>30000001:9;30000002:2;30000003:3;30000004:8;30000005:2;30000006:4;</t>
+  </si>
+  <si>
+    <t>30000001:10:7;30000002:4:1;30000003:5:1;30000004:10:6;30000005:4:1;30000006:6:2;</t>
+  </si>
+  <si>
+    <t>冷寂之窟</t>
+  </si>
+  <si>
+    <t>怕了吧。</t>
+  </si>
+  <si>
+    <t>30000001:8;30000002:3;30000003:7;30000004:8;30000005:2;30000006:2;</t>
+  </si>
+  <si>
+    <t>30000001:10:6;30000002:5:1;30000003:9:5;30000004:10:6;30000005:4:1;30000006:4:1;</t>
+  </si>
+  <si>
+    <t>就是看你不顺眼。</t>
+  </si>
+  <si>
+    <t>30000001:8;30000002:1;30000003:3;30000004:6;30000005:2;30000006:1;</t>
+  </si>
+  <si>
+    <t>30000001:10:6;30000002:3:1;30000003:5:1;30000004:8:4;30000005:4:1;30000006:3:1;</t>
+  </si>
+  <si>
+    <t>让你知道我的厉害！</t>
+  </si>
+  <si>
+    <t>30000001:6;30000002:6;30000003:3;30000004:8;30000005:2;30000006:3;</t>
+  </si>
+  <si>
+    <t>30000001:8:4;30000002:8:4;30000003:5:1;30000004:10:6;30000005:4:1;30000006:5:1;</t>
+  </si>
+  <si>
+    <t>落日原野</t>
+  </si>
+  <si>
+    <t>轮到我了。</t>
+  </si>
+  <si>
+    <t>30000001:9;30000002:2;30000003:1;30000004:8;30000005:1;30000006:5;</t>
+  </si>
+  <si>
+    <t>30000001:10:7;30000002:4:1;30000003:3:1;30000004:10:6;30000005:3:1;30000006:7:3;</t>
+  </si>
+  <si>
+    <t>听说你蛮厉害的嘛？来，切磋一下。</t>
+  </si>
+  <si>
+    <t>30000001:9;30000002:6;30000003:3;30000004:9;30000005:4;30000006:4;</t>
+  </si>
+  <si>
+    <t>30000001:10:7;30000002:8:4;30000003:5:1;30000004:10:7;30000005:6:2;30000006:6:2;</t>
+  </si>
+  <si>
+    <t>无法地带</t>
+  </si>
+  <si>
+    <t>你的纪录到此为止了。</t>
+  </si>
+  <si>
+    <t>30000001:7;30000002:5;30000003:3;30000004:6;30000005:3;30000006:7;</t>
+  </si>
+  <si>
+    <t>30000001:9:5;30000002:7:1;30000003:5:1;30000004:8:4;30000005:5:1;30000006:9:1;</t>
+  </si>
+  <si>
+    <t>准备好了，一起上！</t>
+  </si>
+  <si>
+    <t>30000001:8;30000002:3;30000003:7;30000004:8;30000005:3;30000006:1;</t>
+  </si>
+  <si>
+    <t>30000001:10:6;30000002:5:1;30000003:9:5;30000004:10:6;30000005:5:1;30000006:3:1;</t>
+  </si>
+  <si>
+    <t>远古遗迹</t>
+  </si>
+  <si>
+    <t>我很自信。</t>
+  </si>
+  <si>
+    <t>30000001:7;30000002:6;30000003:2;30000004:5;30000005:2;30000006:3;</t>
+  </si>
+  <si>
+    <t>30000001:9:5;30000002:8:4;30000003:4:1;30000004:7:3;30000005:4:1;30000006:5:1;</t>
+  </si>
+  <si>
+    <t>好讨厌啊。</t>
+  </si>
+  <si>
+    <t>30000001:8;30000002:4;30000003:3;30000004:8;30000005:3;30000006:4;</t>
+  </si>
+  <si>
+    <t>30000001:10:6;30000002:6:2;30000003:5:1;30000004:10:6;30000005:5:1;30000006:6:2;</t>
+  </si>
+  <si>
+    <t>火龙之巢</t>
+  </si>
+  <si>
+    <t>还不打算放弃吗？</t>
+  </si>
+  <si>
+    <t>30000001:3;30000002:3;30000003:3;30000004:3;30000005:3;30000006:3;</t>
+  </si>
+  <si>
+    <t>30000001:10:1;30000002:10:1;30000003:10:1;30000004:10:1;30000005:10:1;30000006:10:1;</t>
+  </si>
+  <si>
+    <t>吃掉我，能获得不少经验。</t>
+  </si>
+  <si>
+    <t>30000001:9;30000002:2;30000003:2;30000004:8;30000005:1;30000006:10;</t>
+  </si>
+  <si>
+    <t>30000001:10:7;30000002:4:1;30000003:4:1;30000004:10:6;30000005:3:1;30000006:10:8;</t>
+  </si>
+  <si>
+    <t>吃我一板砖。</t>
+  </si>
+  <si>
+    <t>30000001:10;30000002:8;30000003:1;30000004:10;30000005:1;30000006:5;</t>
+  </si>
+  <si>
+    <t>30000001:10:8;30000002:10:6;30000003:3:1;30000004:10:8;30000005:3:1;30000006:7:3;</t>
+  </si>
+  <si>
+    <t>这种拼尽全力的感觉，也是不错的。</t>
+  </si>
+  <si>
+    <t>30000001:4;30000002:9;30000003:4;30000004:4;30000005:9;30000006:7;</t>
+  </si>
+  <si>
+    <t>30000001:6:2;30000002:10:7;30000003:6:2;30000004:6:2;30000005:10:7;30000006:9:5;</t>
+  </si>
+  <si>
+    <t>稳住，不要急着进攻。</t>
+  </si>
+  <si>
+    <t>30000001:7;30000002:3;30000003:2;30000004:6;30000005:1;30000006:1;</t>
+  </si>
+  <si>
+    <t>30000001:9:5;30000002:5:1;30000003:4:1;30000004:8:4;30000005:3:1;30000006:3:1;</t>
+  </si>
+  <si>
+    <t>痛苦之村</t>
+  </si>
+  <si>
+    <t>我们公会不会放过你们的！</t>
+  </si>
+  <si>
+    <t>30000001:4;30000002:6;30000003:2;30000004:2;30000005:5;30000006:7;</t>
+  </si>
+  <si>
+    <t>30000001:6:2;30000002:8:4;30000003:4:1;30000004:4:1;30000005:7:3;30000006:9:5;</t>
+  </si>
+  <si>
+    <t>圣湖之畔</t>
+  </si>
+  <si>
+    <t>大神好厉害！</t>
+  </si>
+  <si>
+    <t>30000001:6;30000002:1;30000003:5;30000004:2;30000005:5;30000006:2;</t>
+  </si>
+  <si>
+    <t>30000001:8:4;30000002:3:1;30000003:7:3;30000004:4:1;30000005:7:3;30000006:4:1;</t>
+  </si>
+  <si>
+    <t>有人偷袭。</t>
+  </si>
+  <si>
+    <t>30000001:9;30000002:8;30000003:2;30000004:8;30000005:2;30000006:6;</t>
+  </si>
+  <si>
+    <t>30000001:10:7;30000002:10:6;30000003:4:1;30000004:10:6;30000005:4:1;30000006:8:4;</t>
+  </si>
+  <si>
+    <t>唯快不破！</t>
+  </si>
+  <si>
+    <t>30000001:5;30000002:5;30000003:2;30000004:6;30000005:8;30000006:6;</t>
+  </si>
+  <si>
+    <t>30000001:10:3;30000002:7:3;30000003:4:1;30000004:8:4;30000005:10:1;30000006:8:4;</t>
+  </si>
+  <si>
+    <t>敌人真是太狡猾了。</t>
+  </si>
+  <si>
+    <t>30000001:4;30000002:4;30000003:4;30000004:4;30000005:4;30000006:4;</t>
+  </si>
+  <si>
+    <t>30000001:10:2;30000002:10:2;30000003:10:2;30000004:10:2;30000005:10:2;30000006:10:2;</t>
+  </si>
+  <si>
+    <t>我是世界上最强大的训练师。</t>
+  </si>
+  <si>
+    <t>30000001:8;30000002:4;30000003:1;30000004:7;30000005:1;30000006:4;</t>
+  </si>
+  <si>
+    <t>30000001:10:6;30000002:6:2;30000003:3:1;30000004:9:5;30000005:3:1;30000006:6:2;</t>
+  </si>
+  <si>
+    <t>哥是什么人你都不知道。</t>
+  </si>
+  <si>
+    <t>30000001:10;30000002:4;30000003:4;30000004:4;30000005:4;30000006:4;</t>
+  </si>
+  <si>
+    <t>30000001:10:8;30000002:10:2;30000003:10:2;30000004:10:2;30000005:10:2;30000006:10:2;</t>
+  </si>
+  <si>
+    <t>当你需要经验时会想起我。</t>
+  </si>
+  <si>
+    <t>30000001:3;30000002:4;30000003:10;30000004:4;30000005:10;30000006:4;</t>
+  </si>
+  <si>
+    <t>30000001:10:1;30000002:10:2;30000003:10:8;30000004:10:2;30000005:10:8;30000006:10:2;</t>
+  </si>
+  <si>
+    <t>想体验飞一般的感觉吗？让我来训练训练那些1级的卡牌吧。</t>
+  </si>
+  <si>
+    <t>30000001:5;30000002:5;30000003:5;30000004:5;30000005:5;30000006:5;</t>
+  </si>
+  <si>
+    <t>30000001:7:3;30000002:7:3;30000003:7:3;30000004:7:3;30000005:7:3;30000006:7:3;</t>
+  </si>
+  <si>
+    <t>有了它，你想兑换谁？</t>
+  </si>
+  <si>
+    <t>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</t>
+  </si>
+  <si>
+    <t>技能升级道具，使用后可使技能获得提升。</t>
+  </si>
+  <si>
+    <t>暗夜猫妖眼睛制成的宝石。</t>
+  </si>
+  <si>
+    <t>骷髅勇士被杀死后出现的骨灰。</t>
+  </si>
+  <si>
+    <t>一种神秘银子的碎块。</t>
+  </si>
+  <si>
+    <t>冰霜融化后留下的残迹。</t>
+  </si>
+  <si>
+    <t>杀死骷髅法师后获得的手骨。</t>
+  </si>
+  <si>
+    <t>腐骨羊死亡后留下的骨锥。</t>
+  </si>
+  <si>
+    <t>30000001:9;30000002:9;30000003:9;30000004:9;30000005:9;30000006:9;</t>
+  </si>
+  <si>
+    <t>30000001:10:7;30000002:10:7;30000003:10:7;30000004:10:7;30000005:10:7;30000006:10:7;</t>
+  </si>
+  <si>
+    <t>有了它，顶级卡牌不是梦。</t>
+  </si>
+  <si>
+    <t>白女巫被杀死瞬间留下的眼泪。</t>
+  </si>
+  <si>
+    <t>比较稀有的赤色蝎子尾部的毒针。</t>
+  </si>
+  <si>
+    <t>杀死赤蝎刺客后掉落的毒针。</t>
+  </si>
+  <si>
+    <t>在炎热荒漠中发现的一种特殊物质。</t>
+  </si>
+  <si>
+    <t>坚硬岩石制成的磨砂石。</t>
+  </si>
+  <si>
+    <t>一种稀有的小虫子，沙蚕吐出的丝。</t>
+  </si>
+  <si>
+    <t>一种稀有的半透明琥珀色晶石。</t>
+  </si>
+  <si>
+    <t>被魔法烈焰灼烧过的石头，炽热冒烟的烈焰石。</t>
+  </si>
+  <si>
+    <t>可以打开装备上的第1个宝石空位</t>
+  </si>
+  <si>
+    <t>可以打开装备上的第2个宝石空位</t>
+  </si>
+  <si>
+    <t>30000001:6;30000002:6;30000003:6;30000004:6;30000005:6;30000006:6;</t>
+  </si>
+  <si>
+    <t>燃烧的火焰精华，无法用水浇灭。</t>
+  </si>
+  <si>
+    <t>神秘魔法师掉落的印章。</t>
+  </si>
+  <si>
+    <t>神秘魔法师掉落的魔法溶解剂。</t>
+  </si>
+  <si>
+    <t>一张闪着蓝白色光芒的坚硬晶石。</t>
+  </si>
+  <si>
+    <t>岩之浪人奥磐吐出的气息，杀死奥磬则有机会掉落的稀有材料。</t>
+  </si>
+  <si>
+    <t>岩之浪人奥磐体内的精魄，杀死奥磬则有机会掉落的稀有材料。</t>
+  </si>
+  <si>
+    <t>角斗先锋身上佩戴的徽章。</t>
+  </si>
+  <si>
+    <t>巨龙身上割下来的龙脊，十分稀有。</t>
+  </si>
+  <si>
+    <t>从岩之浪人奥磐处获得的勇气。</t>
+  </si>
+  <si>
+    <t>亡灵之城中死亡的魔法师留下的心脏。</t>
+  </si>
+  <si>
+    <t>30000001:2;30000002:2;30000003:2;30000004:2;30000005:2;30000006:2;</t>
+  </si>
+  <si>
+    <t>这些全是2级宝石</t>
+  </si>
+  <si>
+    <t>可以打开装备上的第3个宝石空位</t>
+  </si>
+  <si>
+    <t>这些全是3级宝石</t>
+  </si>
+  <si>
+    <t>这些全是4级宝石</t>
+  </si>
+  <si>
+    <t>这些全是5级宝石</t>
+  </si>
+  <si>
+    <t>30000001:8;30000002:8;30000003:8;30000004:8;30000005:8;30000006:8;</t>
+  </si>
+  <si>
+    <t>可以打开装备上的第4个宝石空位</t>
+  </si>
+  <si>
+    <t>30000001:8;30000002:4;30000003:6;30000004:5;30000005:1;30000006:8;</t>
+  </si>
+  <si>
+    <t>30000001:10:6;30000002:6:2;30000003:8:4;30000004:7:3;30000005:3:1;30000006:10:6;</t>
+  </si>
+  <si>
+    <t>亚诺森林</t>
+  </si>
+  <si>
+    <t>不许叫我的外号，我真生气了！</t>
+  </si>
+  <si>
+    <t>2:-0.00001;3:-0.00002;4:-0.00003;5:-0.00004;6:-0.00005;7:-0.00006;8:-0.00007;9:-0.00008;10:-0.00009</t>
+  </si>
+  <si>
+    <t>30000001:7;30000002:8;30000003:9;30000004:4;30000005:10;30000006:5;</t>
+  </si>
+  <si>
+    <t>30000001:10:4;30000002:10:5;30000003:10:6;30000004:7:1;30000005:10:7;30000006:8:2;</t>
+  </si>
+  <si>
+    <t>是时候做出一些改变了。</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,18 +924,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -103,7 +1276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -138,7 +1311,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -312,160 +1485,168 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="96.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="71.2857142857143" customWidth="1"/>
+    <col min="11" max="11" width="86.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="11.8571428571429" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>唯一ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>类型</v>
-      </c>
-      <c r="C1" t="str">
-        <v>物品ID</v>
-      </c>
-      <c r="D1" t="str">
-        <v>数量</v>
-      </c>
-      <c r="E1" t="str">
-        <v>产出时间</v>
-      </c>
-      <c r="F1" t="str">
-        <v>概率</v>
-      </c>
-      <c r="G1" t="str">
-        <v>货币影响</v>
-      </c>
-      <c r="H1" t="str">
-        <v>保底权重</v>
-      </c>
-      <c r="I1" t="str">
-        <v>全十保底</v>
-      </c>
-      <c r="J1" t="str">
-        <v>性格材料标准</v>
-      </c>
-      <c r="K1" t="str">
-        <v>性格材料标准区间</v>
-      </c>
-      <c r="L1" t="str">
-        <v>递减值</v>
-      </c>
-      <c r="M1" t="str">
-        <v>产出地点编号</v>
-      </c>
-      <c r="N1" t="str">
-        <v>产出地点提示</v>
-      </c>
-      <c r="O1" t="str">
-        <v>产出名言</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B2" t="str">
-        <v>type</v>
-      </c>
-      <c r="C2" t="str">
-        <v>item_id</v>
-      </c>
-      <c r="D2" t="str">
-        <v>num</v>
-      </c>
-      <c r="E2" t="str">
-        <v>time</v>
-      </c>
-      <c r="F2" t="str">
-        <v>probability</v>
-      </c>
-      <c r="G2" t="str">
-        <v>influence</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Proportion1</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Proportion2</v>
-      </c>
-      <c r="J2" t="str">
-        <v>material</v>
-      </c>
-      <c r="K2" t="str">
-        <v>section</v>
-      </c>
-      <c r="L2" t="str">
-        <v>descending</v>
-      </c>
-      <c r="M2" t="str">
-        <v>Tips1</v>
-      </c>
-      <c r="N2" t="str">
-        <v>Tips2</v>
-      </c>
-      <c r="O2" t="str">
-        <v>dictum</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>int</v>
-      </c>
-      <c r="B3" t="str">
-        <v>int</v>
-      </c>
-      <c r="C3" t="str">
-        <v>int</v>
-      </c>
-      <c r="D3" t="str">
-        <v>int</v>
-      </c>
-      <c r="E3" t="str">
-        <v>int</v>
-      </c>
-      <c r="F3" t="str">
-        <v>float</v>
-      </c>
-      <c r="G3" t="str">
-        <v>int</v>
-      </c>
-      <c r="H3" t="str">
-        <v>float</v>
-      </c>
-      <c r="I3" t="str">
-        <v>float</v>
-      </c>
-      <c r="J3" t="str">
-        <v>string</v>
-      </c>
-      <c r="K3" t="str">
-        <v>string</v>
-      </c>
-      <c r="L3" t="str">
-        <v>float</v>
-      </c>
-      <c r="M3" t="str">
-        <v>int</v>
-      </c>
-      <c r="N3" t="str">
-        <v>string</v>
-      </c>
-      <c r="O3" t="str">
-        <v>string</v>
-      </c>
-    </row>
-    <row r="4">
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -487,13 +1668,17 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" t="str"/>
-      <c r="I4" t="str"/>
-      <c r="J4" t="str">
-        <v>30000001:6;30000002:7;30000003:7;30000004:3;30000005:8;30000006:5;</v>
-      </c>
-      <c r="K4" t="str">
-        <v>30000001:8:4;30000002:9:5;30000003:9:5;30000004:5:1;30000005:10:6;30000006:7:3;</v>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
       </c>
       <c r="L4">
         <v>0.0078</v>
@@ -501,14 +1686,14 @@
       <c r="M4">
         <v>11</v>
       </c>
-      <c r="N4" t="str">
-        <v>悬空城堡</v>
-      </c>
-      <c r="O4" t="str">
-        <v>我不会输！战斗还没有结束！</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -530,13 +1715,17 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" t="str"/>
-      <c r="I5" t="str"/>
-      <c r="J5" t="str">
-        <v>30000001:1;30000002:8;30000003:2;30000004:6;30000005:5;30000006:7;</v>
-      </c>
-      <c r="K5" t="str">
-        <v>30000001:3:1;30000002:10:6;30000003:4:1;30000004:8:4;30000005:7:1;30000006:9:5;</v>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
       </c>
       <c r="L5">
         <v>0.0078</v>
@@ -544,14 +1733,14 @@
       <c r="M5">
         <v>11</v>
       </c>
-      <c r="N5" t="str">
-        <v>悬空城堡</v>
-      </c>
-      <c r="O5" t="str">
-        <v>有幸遇到你，最了不起的你。</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -573,13 +1762,17 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" t="str"/>
-      <c r="I6" t="str"/>
-      <c r="J6" t="str">
-        <v>30000001:5;30000002:7;30000003:4;30000004:4;30000005:5;30000006:4;</v>
-      </c>
-      <c r="K6" t="str">
-        <v>30000001:6:4;30000002:8:6;30000003:5:3;30000004:5:3;30000005:6:4;30000006:5:3;</v>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
       </c>
       <c r="L6">
         <v>0.0078</v>
@@ -587,14 +1780,14 @@
       <c r="M6">
         <v>9</v>
       </c>
-      <c r="N6" t="str">
-        <v>光之领域</v>
-      </c>
-      <c r="O6" t="str">
-        <v>有点遗憾，我已经尽力了。</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="N6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -622,11 +1815,11 @@
       <c r="I7">
         <v>428.6</v>
       </c>
-      <c r="J7" t="str">
-        <v>30000001:6;30000002:7;30000003:3;30000004:2;30000005:5;30000006:1;</v>
-      </c>
-      <c r="K7" t="str">
-        <v>30000001:8:4;30000002:9:5;30000003:5:1;30000004:4:1;30000005:7:3;30000006:3:1;</v>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -634,14 +1827,14 @@
       <c r="M7">
         <v>5</v>
       </c>
-      <c r="N7" t="str">
-        <v>游魂墓地</v>
-      </c>
-      <c r="O7" t="str">
-        <v>看准机会就出手。</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="N7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -669,11 +1862,11 @@
       <c r="I8">
         <v>428.6</v>
       </c>
-      <c r="J8" t="str">
-        <v>30000001:8;30000002:3;30000003:10;30000004:7;30000005:2;30000006:1;</v>
-      </c>
-      <c r="K8" t="str">
-        <v>30000001:10:6;30000002:5:1;30000003:10:8;30000004:9:5;30000005:4:1;30000006:3:1;</v>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,14 +1874,14 @@
       <c r="M8">
         <v>5</v>
       </c>
-      <c r="N8" t="str">
-        <v>游魂墓地</v>
-      </c>
-      <c r="O8" t="str">
-        <v>老子非把你打成包子不成。</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -716,11 +1909,11 @@
       <c r="I9">
         <v>428.6</v>
       </c>
-      <c r="J9" t="str">
-        <v>30000001:9;30000002:2;30000003:3;30000004:8;30000005:2;30000006:4;</v>
-      </c>
-      <c r="K9" t="str">
-        <v>30000001:10:7;30000002:4:1;30000003:5:1;30000004:10:6;30000005:4:1;30000006:6:2;</v>
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -728,14 +1921,14 @@
       <c r="M9">
         <v>7</v>
       </c>
-      <c r="N9" t="str">
-        <v>冷寂之窟</v>
-      </c>
-      <c r="O9" t="str">
-        <v>怕了吧。</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="N9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -763,11 +1956,11 @@
       <c r="I10">
         <v>428.6</v>
       </c>
-      <c r="J10" t="str">
-        <v>30000001:8;30000002:3;30000003:7;30000004:8;30000005:2;30000006:2;</v>
-      </c>
-      <c r="K10" t="str">
-        <v>30000001:10:6;30000002:5:1;30000003:9:5;30000004:10:6;30000005:4:1;30000006:4:1;</v>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" t="s">
+        <v>57</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -775,14 +1968,14 @@
       <c r="M10">
         <v>7</v>
       </c>
-      <c r="N10" t="str">
-        <v>冷寂之窟</v>
-      </c>
-      <c r="O10" t="str">
-        <v>就是看你不顺眼。</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="N10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -810,11 +2003,11 @@
       <c r="I11">
         <v>428.5</v>
       </c>
-      <c r="J11" t="str">
-        <v>30000001:8;30000002:1;30000003:3;30000004:6;30000005:2;30000006:1;</v>
-      </c>
-      <c r="K11" t="str">
-        <v>30000001:10:6;30000002:3:1;30000003:5:1;30000004:8:4;30000005:4:1;30000006:3:1;</v>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
+        <v>60</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -822,14 +2015,14 @@
       <c r="M11">
         <v>7</v>
       </c>
-      <c r="N11" t="str">
-        <v>冷寂之窟</v>
-      </c>
-      <c r="O11" t="str">
-        <v>让你知道我的厉害！</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="N11" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -857,11 +2050,11 @@
       <c r="I12">
         <v>428.6</v>
       </c>
-      <c r="J12" t="str">
-        <v>30000001:6;30000002:6;30000003:3;30000004:8;30000005:2;30000006:3;</v>
-      </c>
-      <c r="K12" t="str">
-        <v>30000001:8:4;30000002:8:4;30000003:5:1;30000004:10:6;30000005:4:1;30000006:5:1;</v>
+      <c r="J12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" t="s">
+        <v>63</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -869,14 +2062,14 @@
       <c r="M12">
         <v>4</v>
       </c>
-      <c r="N12" t="str">
-        <v>落日原野</v>
-      </c>
-      <c r="O12" t="str">
-        <v>轮到我了。</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="N12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -904,11 +2097,11 @@
       <c r="I13">
         <v>428.5</v>
       </c>
-      <c r="J13" t="str">
-        <v>30000001:9;30000002:2;30000003:1;30000004:8;30000005:1;30000006:5;</v>
-      </c>
-      <c r="K13" t="str">
-        <v>30000001:10:7;30000002:4:1;30000003:3:1;30000004:10:6;30000005:3:1;30000006:7:3;</v>
+      <c r="J13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" t="s">
+        <v>67</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -916,14 +2109,14 @@
       <c r="M13">
         <v>5</v>
       </c>
-      <c r="N13" t="str">
-        <v>游魂墓地</v>
-      </c>
-      <c r="O13" t="str">
-        <v>听说你蛮厉害的嘛？来，切磋一下。</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="N13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -945,13 +2138,17 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" t="str"/>
-      <c r="I14" t="str"/>
-      <c r="J14" t="str">
-        <v>30000001:9;30000002:6;30000003:3;30000004:9;30000005:4;30000006:4;</v>
-      </c>
-      <c r="K14" t="str">
-        <v>30000001:10:7;30000002:8:4;30000003:5:1;30000004:10:7;30000005:6:2;30000006:6:2;</v>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" t="s">
+        <v>70</v>
       </c>
       <c r="L14">
         <v>0.0046</v>
@@ -959,14 +2156,14 @@
       <c r="M14">
         <v>2</v>
       </c>
-      <c r="N14" t="str">
-        <v>无法地带</v>
-      </c>
-      <c r="O14" t="str">
-        <v>你的纪录到此为止了。</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="N14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -988,13 +2185,17 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15" t="str"/>
-      <c r="I15" t="str"/>
-      <c r="J15" t="str">
-        <v>30000001:7;30000002:5;30000003:3;30000004:6;30000005:3;30000006:7;</v>
-      </c>
-      <c r="K15" t="str">
-        <v>30000001:9:5;30000002:7:1;30000003:5:1;30000004:8:4;30000005:5:1;30000006:9:1;</v>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" t="s">
+        <v>74</v>
       </c>
       <c r="L15">
         <v>0.0046</v>
@@ -1002,14 +2203,14 @@
       <c r="M15">
         <v>11</v>
       </c>
-      <c r="N15" t="str">
-        <v>悬空城堡</v>
-      </c>
-      <c r="O15" t="str">
-        <v>准备好了，一起上！</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="N15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1037,11 +2238,11 @@
       <c r="I16">
         <v>300</v>
       </c>
-      <c r="J16" t="str">
-        <v>30000001:8;30000002:3;30000003:7;30000004:8;30000005:3;30000006:1;</v>
-      </c>
-      <c r="K16" t="str">
-        <v>30000001:10:6;30000002:5:1;30000003:9:5;30000004:10:6;30000005:5:1;30000006:3:1;</v>
+      <c r="J16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" t="s">
+        <v>77</v>
       </c>
       <c r="L16">
         <v>0.0021</v>
@@ -1049,14 +2250,14 @@
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="N16" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O16" t="str">
-        <v>我很自信。</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="N16" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1084,11 +2285,11 @@
       <c r="I17">
         <v>300</v>
       </c>
-      <c r="J17" t="str">
-        <v>30000001:7;30000002:6;30000003:2;30000004:5;30000005:2;30000006:3;</v>
-      </c>
-      <c r="K17" t="str">
-        <v>30000001:9:5;30000002:8:4;30000003:4:1;30000004:7:3;30000005:4:1;30000006:5:1;</v>
+      <c r="J17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" t="s">
+        <v>81</v>
       </c>
       <c r="L17">
         <v>0.0021</v>
@@ -1096,14 +2297,14 @@
       <c r="M17">
         <v>9</v>
       </c>
-      <c r="N17" t="str">
-        <v>光之领域</v>
-      </c>
-      <c r="O17" t="str">
-        <v>好讨厌啊。</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="N17" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1131,11 +2332,11 @@
       <c r="I18">
         <v>300</v>
       </c>
-      <c r="J18" t="str">
-        <v>30000001:8;30000002:4;30000003:3;30000004:8;30000005:3;30000006:4;</v>
-      </c>
-      <c r="K18" t="str">
-        <v>30000001:10:6;30000002:6:2;30000003:5:1;30000004:10:6;30000005:5:1;30000006:6:2;</v>
+      <c r="J18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" t="s">
+        <v>84</v>
       </c>
       <c r="L18">
         <v>0.0021</v>
@@ -1143,14 +2344,14 @@
       <c r="M18">
         <v>3</v>
       </c>
-      <c r="N18" t="str">
-        <v>火龙之巢</v>
-      </c>
-      <c r="O18" t="str">
-        <v>还不打算放弃吗？</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="N18" t="s">
+        <v>85</v>
+      </c>
+      <c r="O18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1172,13 +2373,17 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" t="str"/>
-      <c r="I19" t="str"/>
-      <c r="J19" t="str">
-        <v>30000001:3;30000002:3;30000003:3;30000004:3;30000005:3;30000006:3;</v>
-      </c>
-      <c r="K19" t="str">
-        <v>30000001:10:1;30000002:10:1;30000003:10:1;30000004:10:1;30000005:10:1;30000006:10:1;</v>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" t="s">
+        <v>88</v>
       </c>
       <c r="L19">
         <v>0.0043</v>
@@ -1186,14 +2391,14 @@
       <c r="M19">
         <v>1</v>
       </c>
-      <c r="N19" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O19" t="str">
-        <v>吃掉我，能获得不少经验。</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="N19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1215,13 +2420,17 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" t="str"/>
-      <c r="I20" t="str"/>
-      <c r="J20" t="str">
-        <v>30000001:9;30000002:2;30000003:2;30000004:8;30000005:1;30000006:10;</v>
-      </c>
-      <c r="K20" t="str">
-        <v>30000001:10:7;30000002:4:1;30000003:4:1;30000004:10:6;30000005:3:1;30000006:10:8;</v>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" t="s">
+        <v>91</v>
       </c>
       <c r="L20">
         <v>0.0039</v>
@@ -1229,14 +2438,14 @@
       <c r="M20">
         <v>5</v>
       </c>
-      <c r="N20" t="str">
-        <v>游魂墓地</v>
-      </c>
-      <c r="O20" t="str">
-        <v>吃我一板砖。</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="N20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1258,13 +2467,17 @@
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21" t="str"/>
-      <c r="I21" t="str"/>
-      <c r="J21" t="str">
-        <v>30000001:10;30000002:8;30000003:1;30000004:10;30000005:1;30000006:5;</v>
-      </c>
-      <c r="K21" t="str">
-        <v>30000001:10:8;30000002:10:6;30000003:3:1;30000004:10:8;30000005:3:1;30000006:7:3;</v>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" t="s">
+        <v>94</v>
       </c>
       <c r="L21">
         <v>0.0039</v>
@@ -1272,14 +2485,14 @@
       <c r="M21">
         <v>7</v>
       </c>
-      <c r="N21" t="str">
-        <v>冷寂之窟</v>
-      </c>
-      <c r="O21" t="str">
-        <v>这种拼尽全力的感觉，也是不错的。</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="N21" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1307,11 +2520,11 @@
       <c r="I22">
         <v>300</v>
       </c>
-      <c r="J22" t="str">
-        <v>30000001:4;30000002:9;30000003:4;30000004:4;30000005:9;30000006:7;</v>
-      </c>
-      <c r="K22" t="str">
-        <v>30000001:6:2;30000002:10:7;30000003:6:2;30000004:6:2;30000005:10:7;30000006:9:5;</v>
+      <c r="J22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" t="s">
+        <v>97</v>
       </c>
       <c r="L22">
         <v>0.0019</v>
@@ -1319,14 +2532,14 @@
       <c r="M22">
         <v>1</v>
       </c>
-      <c r="N22" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O22" t="str">
-        <v>稳住，不要急着进攻。</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="N22" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1354,11 +2567,11 @@
       <c r="I23">
         <v>999.7475</v>
       </c>
-      <c r="J23" t="str">
-        <v>30000001:7;30000002:3;30000003:2;30000004:6;30000005:1;30000006:1;</v>
-      </c>
-      <c r="K23" t="str">
-        <v>30000001:9:5;30000002:5:1;30000003:4:1;30000004:8:4;30000005:3:1;30000006:3:1;</v>
+      <c r="J23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" t="s">
+        <v>100</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1366,14 +2579,14 @@
       <c r="M23">
         <v>10</v>
       </c>
-      <c r="N23" t="str">
-        <v>痛苦之村</v>
-      </c>
-      <c r="O23" t="str">
-        <v>我们公会不会放过你们的！</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="N23" t="s">
+        <v>101</v>
+      </c>
+      <c r="O23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1401,11 +2614,11 @@
       <c r="I24">
         <v>999.7475</v>
       </c>
-      <c r="J24" t="str">
-        <v>30000001:4;30000002:6;30000003:2;30000004:2;30000005:5;30000006:7;</v>
-      </c>
-      <c r="K24" t="str">
-        <v>30000001:6:2;30000002:8:4;30000003:4:1;30000004:4:1;30000005:7:3;30000006:9:5;</v>
+      <c r="J24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" t="s">
+        <v>104</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1413,14 +2626,14 @@
       <c r="M24">
         <v>8</v>
       </c>
-      <c r="N24" t="str">
-        <v>圣湖之畔</v>
-      </c>
-      <c r="O24" t="str">
-        <v>大神好厉害！</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="N24" t="s">
+        <v>105</v>
+      </c>
+      <c r="O24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1448,11 +2661,11 @@
       <c r="I25">
         <v>999.7475</v>
       </c>
-      <c r="J25" t="str">
-        <v>30000001:6;30000002:1;30000003:5;30000004:2;30000005:5;30000006:2;</v>
-      </c>
-      <c r="K25" t="str">
-        <v>30000001:8:4;30000002:3:1;30000003:7:3;30000004:4:1;30000005:7:3;30000006:4:1;</v>
+      <c r="J25" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" t="s">
+        <v>108</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1460,14 +2673,14 @@
       <c r="M25">
         <v>5</v>
       </c>
-      <c r="N25" t="str">
-        <v>游魂墓地</v>
-      </c>
-      <c r="O25" t="str">
-        <v>有人偷袭。</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="N25" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1489,13 +2702,17 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26" t="str"/>
-      <c r="I26" t="str"/>
-      <c r="J26" t="str">
-        <v>30000001:9;30000002:8;30000003:2;30000004:8;30000005:2;30000006:6;</v>
-      </c>
-      <c r="K26" t="str">
-        <v>30000001:10:7;30000002:10:6;30000003:4:1;30000004:10:6;30000005:4:1;30000006:8:4;</v>
+      <c r="H26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" t="s">
+        <v>111</v>
       </c>
       <c r="L26">
         <v>0.0024</v>
@@ -1503,14 +2720,14 @@
       <c r="M26">
         <v>11</v>
       </c>
-      <c r="N26" t="str">
-        <v>悬空城堡</v>
-      </c>
-      <c r="O26" t="str">
-        <v>唯快不破！</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="N26" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1532,13 +2749,17 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27" t="str"/>
-      <c r="I27" t="str"/>
-      <c r="J27" t="str">
-        <v>30000001:5;30000002:5;30000003:2;30000004:6;30000005:8;30000006:6;</v>
-      </c>
-      <c r="K27" t="str">
-        <v>30000001:10:3;30000002:7:3;30000003:4:1;30000004:8:4;30000005:10:1;30000006:8:4;</v>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27" t="s">
+        <v>114</v>
       </c>
       <c r="L27">
         <v>0.0024</v>
@@ -1546,14 +2767,14 @@
       <c r="M27">
         <v>11</v>
       </c>
-      <c r="N27" t="str">
-        <v>悬空城堡</v>
-      </c>
-      <c r="O27" t="str">
-        <v>敌人真是太狡猾了。</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="N27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1575,13 +2796,17 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28" t="str"/>
-      <c r="I28" t="str"/>
-      <c r="J28" t="str">
-        <v>30000001:4;30000002:4;30000003:4;30000004:4;30000005:4;30000006:4;</v>
-      </c>
-      <c r="K28" t="str">
-        <v>30000001:10:2;30000002:10:2;30000003:10:2;30000004:10:2;30000005:10:2;30000006:10:2;</v>
+      <c r="H28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" t="s">
+        <v>117</v>
       </c>
       <c r="L28">
         <v>0.0021</v>
@@ -1589,14 +2814,14 @@
       <c r="M28">
         <v>1</v>
       </c>
-      <c r="N28" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O28" t="str">
-        <v>我是世界上最强大的训练师。</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="N28" t="s">
+        <v>78</v>
+      </c>
+      <c r="O28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1624,11 +2849,11 @@
       <c r="I29">
         <v>300</v>
       </c>
-      <c r="J29" t="str">
-        <v>30000001:8;30000002:4;30000003:1;30000004:7;30000005:1;30000006:4;</v>
-      </c>
-      <c r="K29" t="str">
-        <v>30000001:10:6;30000002:6:2;30000003:3:1;30000004:9:5;30000005:3:1;30000006:6:2;</v>
+      <c r="J29" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" t="s">
+        <v>120</v>
       </c>
       <c r="L29">
         <v>0.0019</v>
@@ -1636,14 +2861,14 @@
       <c r="M29">
         <v>5</v>
       </c>
-      <c r="N29" t="str">
-        <v>游魂墓地</v>
-      </c>
-      <c r="O29" t="str">
-        <v>哥是什么人你都不知道。</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="N29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1665,13 +2890,17 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30" t="str"/>
-      <c r="I30" t="str"/>
-      <c r="J30" t="str">
-        <v>30000001:10;30000002:4;30000003:4;30000004:4;30000005:4;30000006:4;</v>
-      </c>
-      <c r="K30" t="str">
-        <v>30000001:10:8;30000002:10:2;30000003:10:2;30000004:10:2;30000005:10:2;30000006:10:2;</v>
+      <c r="H30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" t="s">
+        <v>123</v>
       </c>
       <c r="L30">
         <v>0.0013</v>
@@ -1679,14 +2908,14 @@
       <c r="M30">
         <v>1</v>
       </c>
-      <c r="N30" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O30" t="str">
-        <v>当你需要经验时会想起我。</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="N30" t="s">
+        <v>78</v>
+      </c>
+      <c r="O30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1708,15 +2937,17 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31" t="str"/>
+      <c r="H31" t="s">
+        <v>33</v>
+      </c>
       <c r="I31">
         <v>0.167</v>
       </c>
-      <c r="J31" t="str">
-        <v>30000001:6;30000002:7;30000003:7;30000004:3;30000005:8;30000006:5;</v>
-      </c>
-      <c r="K31" t="str">
-        <v>30000001:8:4;30000002:9:5;30000003:9:5;30000004:5:1;30000005:10:6;30000006:7:3;</v>
+      <c r="J31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" t="s">
+        <v>35</v>
       </c>
       <c r="L31">
         <v>0.0013</v>
@@ -1724,14 +2955,14 @@
       <c r="M31">
         <v>11</v>
       </c>
-      <c r="N31" t="str">
-        <v>悬空城堡</v>
-      </c>
-      <c r="O31" t="str">
-        <v>我不会输！战斗还没有结束！</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="N31" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1753,15 +2984,17 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32" t="str"/>
+      <c r="H32" t="s">
+        <v>33</v>
+      </c>
       <c r="I32">
         <v>0.167</v>
       </c>
-      <c r="J32" t="str">
-        <v>30000001:1;30000002:8;30000003:2;30000004:6;30000005:5;30000006:7;</v>
-      </c>
-      <c r="K32" t="str">
-        <v>30000001:3:1;30000002:10:6;30000003:4:1;30000004:8:4;30000005:7:1;30000006:9:5;</v>
+      <c r="J32" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" t="s">
+        <v>39</v>
       </c>
       <c r="L32">
         <v>0.0013</v>
@@ -1769,14 +3002,14 @@
       <c r="M32">
         <v>11</v>
       </c>
-      <c r="N32" t="str">
-        <v>悬空城堡</v>
-      </c>
-      <c r="O32" t="str">
-        <v>有幸遇到你，最了不起的你。</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="N32" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1798,13 +3031,17 @@
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33" t="str"/>
-      <c r="I33" t="str"/>
-      <c r="J33" t="str">
-        <v>30000001:5;30000002:7;30000003:4;30000004:4;30000005:5;30000006:4;</v>
-      </c>
-      <c r="K33" t="str">
-        <v>30000001:6:4;30000002:8:6;30000003:5:3;30000004:5:3;30000005:6:4;30000006:5:3;</v>
+      <c r="H33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" t="s">
+        <v>42</v>
       </c>
       <c r="L33">
         <v>0.0013</v>
@@ -1812,14 +3049,14 @@
       <c r="M33">
         <v>9</v>
       </c>
-      <c r="N33" t="str">
-        <v>光之领域</v>
-      </c>
-      <c r="O33" t="str">
-        <v>有点遗憾，我已经尽力了。</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="N33" t="s">
+        <v>43</v>
+      </c>
+      <c r="O33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1841,13 +3078,17 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34" t="str"/>
-      <c r="I34" t="str"/>
-      <c r="J34" t="str">
-        <v>30000001:3;30000002:4;30000003:10;30000004:4;30000005:10;30000006:4;</v>
-      </c>
-      <c r="K34" t="str">
-        <v>30000001:10:1;30000002:10:2;30000003:10:8;30000004:10:2;30000005:10:8;30000006:10:2;</v>
+      <c r="H34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" t="s">
+        <v>125</v>
+      </c>
+      <c r="K34" t="s">
+        <v>126</v>
       </c>
       <c r="L34">
         <v>0.0008</v>
@@ -1855,14 +3096,14 @@
       <c r="M34">
         <v>1</v>
       </c>
-      <c r="N34" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O34" t="str">
-        <v>想体验飞一般的感觉吗？让我来训练训练那些1级的卡牌吧。</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="N34" t="s">
+        <v>78</v>
+      </c>
+      <c r="O34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1884,15 +3125,17 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35" t="str"/>
+      <c r="H35" t="s">
+        <v>33</v>
+      </c>
       <c r="I35">
         <v>0.167</v>
       </c>
-      <c r="J35" t="str">
-        <v>30000001:9;30000002:6;30000003:3;30000004:9;30000005:4;30000006:4;</v>
-      </c>
-      <c r="K35" t="str">
-        <v>30000001:10:7;30000002:8:4;30000003:5:1;30000004:10:7;30000005:6:2;30000006:6:2;</v>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>70</v>
       </c>
       <c r="L35">
         <v>0.00077</v>
@@ -1900,14 +3143,14 @@
       <c r="M35">
         <v>2</v>
       </c>
-      <c r="N35" t="str">
-        <v>无法地带</v>
-      </c>
-      <c r="O35" t="str">
-        <v>你的纪录到此为止了。</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="N35" t="s">
+        <v>71</v>
+      </c>
+      <c r="O35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1929,15 +3172,17 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36" t="str"/>
+      <c r="H36" t="s">
+        <v>33</v>
+      </c>
       <c r="I36">
         <v>0.166</v>
       </c>
-      <c r="J36" t="str">
-        <v>30000001:7;30000002:5;30000003:3;30000004:6;30000005:3;30000006:7;</v>
-      </c>
-      <c r="K36" t="str">
-        <v>30000001:9:5;30000002:7:1;30000003:5:1;30000004:8:4;30000005:5:1;30000006:9:1;</v>
+      <c r="J36" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36" t="s">
+        <v>74</v>
       </c>
       <c r="L36">
         <v>0.00077</v>
@@ -1945,14 +3190,14 @@
       <c r="M36">
         <v>11</v>
       </c>
-      <c r="N36" t="str">
-        <v>悬空城堡</v>
-      </c>
-      <c r="O36" t="str">
-        <v>准备好了，一起上！</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="N36" t="s">
+        <v>36</v>
+      </c>
+      <c r="O36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1974,13 +3219,17 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37" t="str"/>
-      <c r="I37" t="str"/>
-      <c r="J37" t="str">
-        <v>30000001:5;30000002:5;30000003:5;30000004:5;30000005:5;30000006:5;</v>
-      </c>
-      <c r="K37" t="str">
-        <v>30000001:7:3;30000002:7:3;30000003:7:3;30000004:7:3;30000005:7:3;30000006:7:3;</v>
+      <c r="H37" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" t="s">
+        <v>128</v>
+      </c>
+      <c r="K37" t="s">
+        <v>129</v>
       </c>
       <c r="L37">
         <v>0.0001</v>
@@ -1988,14 +3237,14 @@
       <c r="M37">
         <v>1</v>
       </c>
-      <c r="N37" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O37" t="str">
-        <v>有了它，你想兑换谁？</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="N37" t="s">
+        <v>78</v>
+      </c>
+      <c r="O37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2017,15 +3266,17 @@
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38" t="str"/>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
       <c r="I38">
         <v>0.167</v>
       </c>
-      <c r="J38" t="str">
-        <v>30000001:9;30000002:2;30000003:2;30000004:8;30000005:1;30000006:10;</v>
-      </c>
-      <c r="K38" t="str">
-        <v>30000001:10:7;30000002:4:1;30000003:4:1;30000004:10:6;30000005:3:1;30000006:10:8;</v>
+      <c r="J38" t="s">
+        <v>90</v>
+      </c>
+      <c r="K38" t="s">
+        <v>91</v>
       </c>
       <c r="L38">
         <v>0.00066</v>
@@ -2033,14 +3284,14 @@
       <c r="M38">
         <v>5</v>
       </c>
-      <c r="N38" t="str">
-        <v>游魂墓地</v>
-      </c>
-      <c r="O38" t="str">
-        <v>吃我一板砖。</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="N38" t="s">
+        <v>47</v>
+      </c>
+      <c r="O38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2062,15 +3313,17 @@
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39" t="str"/>
+      <c r="H39" t="s">
+        <v>33</v>
+      </c>
       <c r="I39">
         <v>0.166</v>
       </c>
-      <c r="J39" t="str">
-        <v>30000001:10;30000002:8;30000003:1;30000004:10;30000005:1;30000006:5;</v>
-      </c>
-      <c r="K39" t="str">
-        <v>30000001:10:8;30000002:10:6;30000003:3:1;30000004:10:8;30000005:3:1;30000006:7:3;</v>
+      <c r="J39" t="s">
+        <v>93</v>
+      </c>
+      <c r="K39" t="s">
+        <v>94</v>
       </c>
       <c r="L39">
         <v>0.00066</v>
@@ -2078,14 +3331,14 @@
       <c r="M39">
         <v>7</v>
       </c>
-      <c r="N39" t="str">
-        <v>冷寂之窟</v>
-      </c>
-      <c r="O39" t="str">
-        <v>这种拼尽全力的感觉，也是不错的。</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="N39" t="s">
+        <v>54</v>
+      </c>
+      <c r="O39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2107,15 +3360,17 @@
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40" t="str"/>
+      <c r="H40" t="s">
+        <v>33</v>
+      </c>
       <c r="I40">
         <v>0.005</v>
       </c>
-      <c r="J40" t="str">
-        <v>30000001:9;30000002:8;30000003:2;30000004:8;30000005:2;30000006:6;</v>
-      </c>
-      <c r="K40" t="str">
-        <v>30000001:10:7;30000002:10:6;30000003:4:1;30000004:10:6;30000005:4:1;30000006:8:4;</v>
+      <c r="J40" t="s">
+        <v>110</v>
+      </c>
+      <c r="K40" t="s">
+        <v>111</v>
       </c>
       <c r="L40">
         <v>0.0004</v>
@@ -2123,14 +3378,14 @@
       <c r="M40">
         <v>11</v>
       </c>
-      <c r="N40" t="str">
-        <v>悬空城堡</v>
-      </c>
-      <c r="O40" t="str">
-        <v>唯快不破！</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="N40" t="s">
+        <v>36</v>
+      </c>
+      <c r="O40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>38</v>
       </c>
@@ -2152,15 +3407,17 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41" t="str"/>
+      <c r="H41" t="s">
+        <v>33</v>
+      </c>
       <c r="I41">
         <v>0.005</v>
       </c>
-      <c r="J41" t="str">
-        <v>30000001:5;30000002:5;30000003:2;30000004:6;30000005:8;30000006:6;</v>
-      </c>
-      <c r="K41" t="str">
-        <v>30000001:10:3;30000002:7:3;30000003:4:1;30000004:8:4;30000005:10:1;30000006:8:4;</v>
+      <c r="J41" t="s">
+        <v>113</v>
+      </c>
+      <c r="K41" t="s">
+        <v>114</v>
       </c>
       <c r="L41">
         <v>0.0004</v>
@@ -2168,14 +3425,14 @@
       <c r="M41">
         <v>11</v>
       </c>
-      <c r="N41" t="str">
-        <v>悬空城堡</v>
-      </c>
-      <c r="O41" t="str">
-        <v>敌人真是太狡猾了。</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="N41" t="s">
+        <v>36</v>
+      </c>
+      <c r="O41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>39</v>
       </c>
@@ -2197,30 +3454,32 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42" t="str"/>
+      <c r="H42" t="s">
+        <v>33</v>
+      </c>
       <c r="I42">
         <v>500</v>
       </c>
-      <c r="J42" t="str">
-        <v>30000001:5;30000002:5;30000003:5;30000004:5;30000005:5;30000006:5;</v>
-      </c>
-      <c r="K42" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="J42" t="s">
+        <v>128</v>
+      </c>
+      <c r="K42" t="s">
+        <v>131</v>
       </c>
       <c r="L42">
-        <v>0.000049</v>
+        <v>4.9e-5</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
-      <c r="N42" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O42" t="str">
-        <v>技能升级道具，使用后可使技能获得提升。</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="N42" t="s">
+        <v>78</v>
+      </c>
+      <c r="O42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2242,28 +3501,32 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43" t="str"/>
-      <c r="I43" t="str"/>
-      <c r="J43" t="str">
-        <v>30000001:4;30000002:4;30000003:4;30000004:4;30000005:4;30000006:4;</v>
-      </c>
-      <c r="K43" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" t="s">
+        <v>116</v>
+      </c>
+      <c r="K43" t="s">
+        <v>131</v>
       </c>
       <c r="L43">
-        <v>0.000039</v>
+        <v>3.9e-5</v>
       </c>
       <c r="M43">
         <v>1</v>
       </c>
-      <c r="N43" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O43" t="str">
-        <v>暗夜猫妖眼睛制成的宝石。</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="N43" t="s">
+        <v>78</v>
+      </c>
+      <c r="O43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>41</v>
       </c>
@@ -2285,28 +3548,32 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44" t="str"/>
-      <c r="I44" t="str"/>
-      <c r="J44" t="str">
-        <v>30000001:4;30000002:4;30000003:4;30000004:4;30000005:4;30000006:4;</v>
-      </c>
-      <c r="K44" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H44" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" t="s">
+        <v>116</v>
+      </c>
+      <c r="K44" t="s">
+        <v>131</v>
       </c>
       <c r="L44">
-        <v>0.000039</v>
+        <v>3.9e-5</v>
       </c>
       <c r="M44">
         <v>1</v>
       </c>
-      <c r="N44" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O44" t="str">
-        <v>骷髅勇士被杀死后出现的骨灰。</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="N44" t="s">
+        <v>78</v>
+      </c>
+      <c r="O44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2328,28 +3595,32 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45" t="str"/>
-      <c r="I45" t="str"/>
-      <c r="J45" t="str">
-        <v>30000001:4;30000002:4;30000003:4;30000004:4;30000005:4;30000006:4;</v>
-      </c>
-      <c r="K45" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H45" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" t="s">
+        <v>116</v>
+      </c>
+      <c r="K45" t="s">
+        <v>131</v>
       </c>
       <c r="L45">
-        <v>0.000039</v>
+        <v>3.9e-5</v>
       </c>
       <c r="M45">
         <v>1</v>
       </c>
-      <c r="N45" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O45" t="str">
-        <v>一种神秘银子的碎块。</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="N45" t="s">
+        <v>78</v>
+      </c>
+      <c r="O45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2371,28 +3642,32 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46" t="str"/>
-      <c r="I46" t="str"/>
-      <c r="J46" t="str">
-        <v>30000001:4;30000002:4;30000003:4;30000004:4;30000005:4;30000006:4;</v>
-      </c>
-      <c r="K46" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" t="s">
+        <v>116</v>
+      </c>
+      <c r="K46" t="s">
+        <v>131</v>
       </c>
       <c r="L46">
-        <v>0.000039</v>
+        <v>3.9e-5</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
-      <c r="N46" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O46" t="str">
-        <v>冰霜融化后留下的残迹。</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="N46" t="s">
+        <v>78</v>
+      </c>
+      <c r="O46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>44</v>
       </c>
@@ -2414,28 +3689,32 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47" t="str"/>
-      <c r="I47" t="str"/>
-      <c r="J47" t="str">
-        <v>30000001:4;30000002:4;30000003:4;30000004:4;30000005:4;30000006:4;</v>
-      </c>
-      <c r="K47" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H47" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" t="s">
+        <v>116</v>
+      </c>
+      <c r="K47" t="s">
+        <v>131</v>
       </c>
       <c r="L47">
-        <v>0.000039</v>
+        <v>3.9e-5</v>
       </c>
       <c r="M47">
         <v>1</v>
       </c>
-      <c r="N47" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O47" t="str">
-        <v>杀死骷髅法师后获得的手骨。</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="N47" t="s">
+        <v>78</v>
+      </c>
+      <c r="O47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>45</v>
       </c>
@@ -2457,28 +3736,32 @@
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48" t="str"/>
-      <c r="I48" t="str"/>
-      <c r="J48" t="str">
-        <v>30000001:4;30000002:4;30000003:4;30000004:4;30000005:4;30000006:4;</v>
-      </c>
-      <c r="K48" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H48" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" t="s">
+        <v>116</v>
+      </c>
+      <c r="K48" t="s">
+        <v>131</v>
       </c>
       <c r="L48">
-        <v>0.000039</v>
+        <v>3.9e-5</v>
       </c>
       <c r="M48">
         <v>1</v>
       </c>
-      <c r="N48" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O48" t="str">
-        <v>腐骨羊死亡后留下的骨锥。</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="N48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>46</v>
       </c>
@@ -2500,30 +3783,32 @@
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49" t="str"/>
+      <c r="H49" t="s">
+        <v>33</v>
+      </c>
       <c r="I49">
         <v>400</v>
       </c>
-      <c r="J49" t="str">
-        <v>30000001:5;30000002:5;30000003:5;30000004:5;30000005:5;30000006:5;</v>
-      </c>
-      <c r="K49" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="J49" t="s">
+        <v>128</v>
+      </c>
+      <c r="K49" t="s">
+        <v>131</v>
       </c>
       <c r="L49">
-        <v>0.000039</v>
+        <v>3.9e-5</v>
       </c>
       <c r="M49">
         <v>1</v>
       </c>
-      <c r="N49" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O49" t="str">
-        <v>技能升级道具，使用后可使技能获得提升。</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="N49" t="s">
+        <v>78</v>
+      </c>
+      <c r="O49" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>47</v>
       </c>
@@ -2545,28 +3830,32 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50" t="str"/>
-      <c r="I50" t="str"/>
-      <c r="J50" t="str">
-        <v>30000001:9;30000002:9;30000003:9;30000004:9;30000005:9;30000006:9;</v>
-      </c>
-      <c r="K50" t="str">
-        <v>30000001:10:7;30000002:10:7;30000003:10:7;30000004:10:7;30000005:10:7;30000006:10:7;</v>
+      <c r="H50" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" t="s">
+        <v>139</v>
+      </c>
+      <c r="K50" t="s">
+        <v>140</v>
       </c>
       <c r="L50">
-        <v>0.00003</v>
+        <v>3e-5</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
-      <c r="N50" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O50" t="str">
-        <v>有了它，顶级卡牌不是梦。</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="N50" t="s">
+        <v>78</v>
+      </c>
+      <c r="O50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>48</v>
       </c>
@@ -2588,30 +3877,32 @@
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51" t="str"/>
+      <c r="H51" t="s">
+        <v>33</v>
+      </c>
       <c r="I51">
         <v>300</v>
       </c>
-      <c r="J51" t="str">
-        <v>30000001:5;30000002:5;30000003:5;30000004:5;30000005:5;30000006:5;</v>
-      </c>
-      <c r="K51" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="J51" t="s">
+        <v>128</v>
+      </c>
+      <c r="K51" t="s">
+        <v>131</v>
       </c>
       <c r="L51">
-        <v>0.000027</v>
+        <v>2.7e-5</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
-      <c r="N51" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O51" t="str">
-        <v>技能升级道具，使用后可使技能获得提升。</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="N51" t="s">
+        <v>78</v>
+      </c>
+      <c r="O51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>49</v>
       </c>
@@ -2633,28 +3924,32 @@
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52" t="str"/>
-      <c r="I52" t="str"/>
-      <c r="J52" t="str">
-        <v>30000001:5;30000002:5;30000003:5;30000004:5;30000005:5;30000006:5;</v>
-      </c>
-      <c r="K52" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H52" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" t="s">
+        <v>128</v>
+      </c>
+      <c r="K52" t="s">
+        <v>131</v>
       </c>
       <c r="L52">
-        <v>0.00002</v>
+        <v>2e-5</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
-      <c r="N52" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O52" t="str">
-        <v>白女巫被杀死瞬间留下的眼泪。</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="N52" t="s">
+        <v>78</v>
+      </c>
+      <c r="O52" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>50</v>
       </c>
@@ -2676,28 +3971,32 @@
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53" t="str"/>
-      <c r="I53" t="str"/>
-      <c r="J53" t="str">
-        <v>30000001:5;30000002:5;30000003:5;30000004:5;30000005:5;30000006:5;</v>
-      </c>
-      <c r="K53" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H53" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" t="s">
+        <v>128</v>
+      </c>
+      <c r="K53" t="s">
+        <v>131</v>
       </c>
       <c r="L53">
-        <v>0.00002</v>
+        <v>2e-5</v>
       </c>
       <c r="M53">
         <v>1</v>
       </c>
-      <c r="N53" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O53" t="str">
-        <v>比较稀有的赤色蝎子尾部的毒针。</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="N53" t="s">
+        <v>78</v>
+      </c>
+      <c r="O53" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>51</v>
       </c>
@@ -2719,28 +4018,32 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54" t="str"/>
-      <c r="I54" t="str"/>
-      <c r="J54" t="str">
-        <v>30000001:5;30000002:5;30000003:5;30000004:5;30000005:5;30000006:5;</v>
-      </c>
-      <c r="K54" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H54" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" t="s">
+        <v>128</v>
+      </c>
+      <c r="K54" t="s">
+        <v>131</v>
       </c>
       <c r="L54">
-        <v>0.00002</v>
+        <v>2e-5</v>
       </c>
       <c r="M54">
         <v>1</v>
       </c>
-      <c r="N54" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O54" t="str">
-        <v>杀死赤蝎刺客后掉落的毒针。</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="N54" t="s">
+        <v>78</v>
+      </c>
+      <c r="O54" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>52</v>
       </c>
@@ -2762,28 +4065,32 @@
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55" t="str"/>
-      <c r="I55" t="str"/>
-      <c r="J55" t="str">
-        <v>30000001:5;30000002:5;30000003:5;30000004:5;30000005:5;30000006:5;</v>
-      </c>
-      <c r="K55" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H55" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" t="s">
+        <v>128</v>
+      </c>
+      <c r="K55" t="s">
+        <v>131</v>
       </c>
       <c r="L55">
-        <v>0.00002</v>
+        <v>2e-5</v>
       </c>
       <c r="M55">
         <v>1</v>
       </c>
-      <c r="N55" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O55" t="str">
-        <v>在炎热荒漠中发现的一种特殊物质。</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="N55" t="s">
+        <v>78</v>
+      </c>
+      <c r="O55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>53</v>
       </c>
@@ -2805,28 +4112,32 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56" t="str"/>
-      <c r="I56" t="str"/>
-      <c r="J56" t="str">
-        <v>30000001:5;30000002:5;30000003:5;30000004:5;30000005:5;30000006:5;</v>
-      </c>
-      <c r="K56" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" t="s">
+        <v>128</v>
+      </c>
+      <c r="K56" t="s">
+        <v>131</v>
       </c>
       <c r="L56">
-        <v>0.00002</v>
+        <v>2e-5</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
-      <c r="N56" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O56" t="str">
-        <v>白女巫被杀死瞬间留下的眼泪。</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="N56" t="s">
+        <v>78</v>
+      </c>
+      <c r="O56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>54</v>
       </c>
@@ -2848,28 +4159,32 @@
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57" t="str"/>
-      <c r="I57" t="str"/>
-      <c r="J57" t="str">
-        <v>30000001:5;30000002:5;30000003:5;30000004:5;30000005:5;30000006:5;</v>
-      </c>
-      <c r="K57" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H57" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57" t="s">
+        <v>128</v>
+      </c>
+      <c r="K57" t="s">
+        <v>131</v>
       </c>
       <c r="L57">
-        <v>0.00002</v>
+        <v>2e-5</v>
       </c>
       <c r="M57">
         <v>1</v>
       </c>
-      <c r="N57" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O57" t="str">
-        <v>比较稀有的赤色蝎子尾部的毒针。</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="N57" t="s">
+        <v>78</v>
+      </c>
+      <c r="O57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>55</v>
       </c>
@@ -2891,28 +4206,32 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58" t="str"/>
-      <c r="I58" t="str"/>
-      <c r="J58" t="str">
-        <v>30000001:5;30000002:5;30000003:5;30000004:5;30000005:5;30000006:5;</v>
-      </c>
-      <c r="K58" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H58" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" t="s">
+        <v>128</v>
+      </c>
+      <c r="K58" t="s">
+        <v>131</v>
       </c>
       <c r="L58">
-        <v>0.00002</v>
+        <v>2e-5</v>
       </c>
       <c r="M58">
         <v>1</v>
       </c>
-      <c r="N58" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O58" t="str">
-        <v>杀死赤蝎刺客后掉落的毒针。</v>
-      </c>
-    </row>
-    <row r="59">
+      <c r="N58" t="s">
+        <v>78</v>
+      </c>
+      <c r="O58" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>56</v>
       </c>
@@ -2934,28 +4253,32 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59" t="str"/>
-      <c r="I59" t="str"/>
-      <c r="J59" t="str">
-        <v>30000001:5;30000002:5;30000003:5;30000004:5;30000005:5;30000006:5;</v>
-      </c>
-      <c r="K59" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H59" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" t="s">
+        <v>128</v>
+      </c>
+      <c r="K59" t="s">
+        <v>131</v>
       </c>
       <c r="L59">
-        <v>0.00002</v>
+        <v>2e-5</v>
       </c>
       <c r="M59">
         <v>1</v>
       </c>
-      <c r="N59" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O59" t="str">
-        <v>在炎热荒漠中发现的一种特殊物质。</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="N59" t="s">
+        <v>78</v>
+      </c>
+      <c r="O59" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>57</v>
       </c>
@@ -2977,28 +4300,32 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60" t="str"/>
-      <c r="I60" t="str"/>
-      <c r="J60" t="str">
-        <v>30000001:5;30000002:5;30000003:5;30000004:5;30000005:5;30000006:5;</v>
-      </c>
-      <c r="K60" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" t="s">
+        <v>128</v>
+      </c>
+      <c r="K60" t="s">
+        <v>131</v>
       </c>
       <c r="L60">
-        <v>0.00002</v>
+        <v>2e-5</v>
       </c>
       <c r="M60">
         <v>1</v>
       </c>
-      <c r="N60" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O60" t="str">
-        <v>坚硬岩石制成的磨砂石。</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="N60" t="s">
+        <v>78</v>
+      </c>
+      <c r="O60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>58</v>
       </c>
@@ -3020,28 +4347,32 @@
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="H61" t="str"/>
-      <c r="I61" t="str"/>
-      <c r="J61" t="str">
-        <v>30000001:5;30000002:5;30000003:5;30000004:5;30000005:5;30000006:5;</v>
-      </c>
-      <c r="K61" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" t="s">
+        <v>128</v>
+      </c>
+      <c r="K61" t="s">
+        <v>131</v>
       </c>
       <c r="L61">
-        <v>0.00002</v>
+        <v>2e-5</v>
       </c>
       <c r="M61">
         <v>1</v>
       </c>
-      <c r="N61" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O61" t="str">
-        <v>一种稀有的小虫子，沙蚕吐出的丝。</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="N61" t="s">
+        <v>78</v>
+      </c>
+      <c r="O61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>59</v>
       </c>
@@ -3063,28 +4394,32 @@
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="H62" t="str"/>
-      <c r="I62" t="str"/>
-      <c r="J62" t="str">
-        <v>30000001:5;30000002:5;30000003:5;30000004:5;30000005:5;30000006:5;</v>
-      </c>
-      <c r="K62" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H62" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" t="s">
+        <v>128</v>
+      </c>
+      <c r="K62" t="s">
+        <v>131</v>
       </c>
       <c r="L62">
-        <v>0.00002</v>
+        <v>2e-5</v>
       </c>
       <c r="M62">
         <v>1</v>
       </c>
-      <c r="N62" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O62" t="str">
-        <v>一种稀有的半透明琥珀色晶石。</v>
-      </c>
-    </row>
-    <row r="63">
+      <c r="N62" t="s">
+        <v>78</v>
+      </c>
+      <c r="O62" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>60</v>
       </c>
@@ -3106,28 +4441,32 @@
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63" t="str"/>
-      <c r="I63" t="str"/>
-      <c r="J63" t="str">
-        <v>30000001:5;30000002:5;30000003:5;30000004:5;30000005:5;30000006:5;</v>
-      </c>
-      <c r="K63" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H63" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" t="s">
+        <v>128</v>
+      </c>
+      <c r="K63" t="s">
+        <v>131</v>
       </c>
       <c r="L63">
-        <v>0.00002</v>
+        <v>2e-5</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
-      <c r="N63" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O63" t="str">
-        <v>被魔法烈焰灼烧过的石头，炽热冒烟的烈焰石。</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="N63" t="s">
+        <v>78</v>
+      </c>
+      <c r="O63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>61</v>
       </c>
@@ -3149,28 +4488,32 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64" t="str"/>
-      <c r="I64" t="str"/>
-      <c r="J64" t="str">
-        <v>30000001:3;30000002:3;30000003:3;30000004:3;30000005:3;30000006:3;</v>
-      </c>
-      <c r="K64" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H64" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" t="s">
+        <v>87</v>
+      </c>
+      <c r="K64" t="s">
+        <v>131</v>
       </c>
       <c r="L64">
-        <v>0.000019</v>
+        <v>1.9e-5</v>
       </c>
       <c r="M64">
         <v>1</v>
       </c>
-      <c r="N64" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O64" t="str">
-        <v>可以打开装备上的第1个宝石空位</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="N64" t="s">
+        <v>78</v>
+      </c>
+      <c r="O64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>62</v>
       </c>
@@ -3192,30 +4535,32 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65" t="str"/>
+      <c r="H65" t="s">
+        <v>33</v>
+      </c>
       <c r="I65">
         <v>200</v>
       </c>
-      <c r="J65" t="str">
-        <v>30000001:5;30000002:5;30000003:5;30000004:5;30000005:5;30000006:5;</v>
-      </c>
-      <c r="K65" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="J65" t="s">
+        <v>128</v>
+      </c>
+      <c r="K65" t="s">
+        <v>131</v>
       </c>
       <c r="L65">
-        <v>0.000013</v>
+        <v>1.3e-5</v>
       </c>
       <c r="M65">
         <v>1</v>
       </c>
-      <c r="N65" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O65" t="str">
-        <v>技能升级道具，使用后可使技能获得提升。</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="N65" t="s">
+        <v>78</v>
+      </c>
+      <c r="O65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>63</v>
       </c>
@@ -3237,28 +4582,32 @@
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66" t="str"/>
-      <c r="I66" t="str"/>
-      <c r="J66" t="str">
-        <v>30000001:5;30000002:5;30000003:5;30000004:5;30000005:5;30000006:5;</v>
-      </c>
-      <c r="K66" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H66" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" t="s">
+        <v>33</v>
+      </c>
+      <c r="J66" t="s">
+        <v>128</v>
+      </c>
+      <c r="K66" t="s">
+        <v>131</v>
       </c>
       <c r="L66">
-        <v>0.00001</v>
+        <v>1e-5</v>
       </c>
       <c r="M66">
         <v>1</v>
       </c>
-      <c r="N66" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O66" t="str">
-        <v>可以打开装备上的第2个宝石空位</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="N66" t="s">
+        <v>78</v>
+      </c>
+      <c r="O66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>64</v>
       </c>
@@ -3280,28 +4629,32 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67" t="str"/>
-      <c r="I67" t="str"/>
-      <c r="J67" t="str">
-        <v>30000001:6;30000002:6;30000003:6;30000004:6;30000005:6;30000006:6;</v>
-      </c>
-      <c r="K67" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H67" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" t="s">
+        <v>33</v>
+      </c>
+      <c r="J67" t="s">
+        <v>152</v>
+      </c>
+      <c r="K67" t="s">
+        <v>131</v>
       </c>
       <c r="L67">
-        <v>0.0000092</v>
+        <v>9.2e-6</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
-      <c r="N67" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O67" t="str">
-        <v>燃烧的火焰精华，无法用水浇灭。</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="N67" t="s">
+        <v>78</v>
+      </c>
+      <c r="O67" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>65</v>
       </c>
@@ -3323,28 +4676,32 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68" t="str"/>
-      <c r="I68" t="str"/>
-      <c r="J68" t="str">
-        <v>30000001:6;30000002:6;30000003:6;30000004:6;30000005:6;30000006:6;</v>
-      </c>
-      <c r="K68" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H68" t="s">
+        <v>33</v>
+      </c>
+      <c r="I68" t="s">
+        <v>33</v>
+      </c>
+      <c r="J68" t="s">
+        <v>152</v>
+      </c>
+      <c r="K68" t="s">
+        <v>131</v>
       </c>
       <c r="L68">
-        <v>0.0000092</v>
+        <v>9.2e-6</v>
       </c>
       <c r="M68">
         <v>1</v>
       </c>
-      <c r="N68" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O68" t="str">
-        <v>神秘魔法师掉落的印章。</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="N68" t="s">
+        <v>78</v>
+      </c>
+      <c r="O68" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>66</v>
       </c>
@@ -3366,28 +4723,32 @@
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69" t="str"/>
-      <c r="I69" t="str"/>
-      <c r="J69" t="str">
-        <v>30000001:6;30000002:6;30000003:6;30000004:6;30000005:6;30000006:6;</v>
-      </c>
-      <c r="K69" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H69" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" t="s">
+        <v>33</v>
+      </c>
+      <c r="J69" t="s">
+        <v>152</v>
+      </c>
+      <c r="K69" t="s">
+        <v>131</v>
       </c>
       <c r="L69">
-        <v>0.0000092</v>
+        <v>9.2e-6</v>
       </c>
       <c r="M69">
         <v>1</v>
       </c>
-      <c r="N69" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O69" t="str">
-        <v>燃烧的火焰精华，无法用水浇灭。</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="N69" t="s">
+        <v>78</v>
+      </c>
+      <c r="O69" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>67</v>
       </c>
@@ -3409,28 +4770,32 @@
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70" t="str"/>
-      <c r="I70" t="str"/>
-      <c r="J70" t="str">
-        <v>30000001:6;30000002:6;30000003:6;30000004:6;30000005:6;30000006:6;</v>
-      </c>
-      <c r="K70" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H70" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70" t="s">
+        <v>152</v>
+      </c>
+      <c r="K70" t="s">
+        <v>131</v>
       </c>
       <c r="L70">
-        <v>0.0000092</v>
+        <v>9.2e-6</v>
       </c>
       <c r="M70">
         <v>1</v>
       </c>
-      <c r="N70" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O70" t="str">
-        <v>神秘魔法师掉落的印章。</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="N70" t="s">
+        <v>78</v>
+      </c>
+      <c r="O70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>68</v>
       </c>
@@ -3452,28 +4817,32 @@
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71" t="str"/>
-      <c r="I71" t="str"/>
-      <c r="J71" t="str">
-        <v>30000001:6;30000002:6;30000003:6;30000004:6;30000005:6;30000006:6;</v>
-      </c>
-      <c r="K71" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H71" t="s">
+        <v>33</v>
+      </c>
+      <c r="I71" t="s">
+        <v>33</v>
+      </c>
+      <c r="J71" t="s">
+        <v>152</v>
+      </c>
+      <c r="K71" t="s">
+        <v>131</v>
       </c>
       <c r="L71">
-        <v>0.0000092</v>
+        <v>9.2e-6</v>
       </c>
       <c r="M71">
         <v>1</v>
       </c>
-      <c r="N71" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O71" t="str">
-        <v>神秘魔法师掉落的魔法溶解剂。</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="N71" t="s">
+        <v>78</v>
+      </c>
+      <c r="O71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>69</v>
       </c>
@@ -3495,28 +4864,32 @@
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72" t="str"/>
-      <c r="I72" t="str"/>
-      <c r="J72" t="str">
-        <v>30000001:6;30000002:6;30000003:6;30000004:6;30000005:6;30000006:6;</v>
-      </c>
-      <c r="K72" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I72" t="s">
+        <v>33</v>
+      </c>
+      <c r="J72" t="s">
+        <v>152</v>
+      </c>
+      <c r="K72" t="s">
+        <v>131</v>
       </c>
       <c r="L72">
-        <v>0.0000092</v>
+        <v>9.2e-6</v>
       </c>
       <c r="M72">
         <v>1</v>
       </c>
-      <c r="N72" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O72" t="str">
-        <v>一张闪着蓝白色光芒的坚硬晶石。</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="N72" t="s">
+        <v>78</v>
+      </c>
+      <c r="O72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>70</v>
       </c>
@@ -3538,28 +4911,32 @@
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73" t="str"/>
-      <c r="I73" t="str"/>
-      <c r="J73" t="str">
-        <v>30000001:6;30000002:6;30000003:6;30000004:6;30000005:6;30000006:6;</v>
-      </c>
-      <c r="K73" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H73" t="s">
+        <v>33</v>
+      </c>
+      <c r="I73" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" t="s">
+        <v>152</v>
+      </c>
+      <c r="K73" t="s">
+        <v>131</v>
       </c>
       <c r="L73">
-        <v>0.0000092</v>
+        <v>9.2e-6</v>
       </c>
       <c r="M73">
         <v>1</v>
       </c>
-      <c r="N73" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O73" t="str">
-        <v>岩之浪人奥磐吐出的气息，杀死奥磬则有机会掉落的稀有材料。</v>
-      </c>
-    </row>
-    <row r="74">
+      <c r="N73" t="s">
+        <v>78</v>
+      </c>
+      <c r="O73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>71</v>
       </c>
@@ -3581,28 +4958,32 @@
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74" t="str"/>
-      <c r="I74" t="str"/>
-      <c r="J74" t="str">
-        <v>30000001:6;30000002:6;30000003:6;30000004:6;30000005:6;30000006:6;</v>
-      </c>
-      <c r="K74" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H74" t="s">
+        <v>33</v>
+      </c>
+      <c r="I74" t="s">
+        <v>33</v>
+      </c>
+      <c r="J74" t="s">
+        <v>152</v>
+      </c>
+      <c r="K74" t="s">
+        <v>131</v>
       </c>
       <c r="L74">
-        <v>0.0000092</v>
+        <v>9.2e-6</v>
       </c>
       <c r="M74">
         <v>1</v>
       </c>
-      <c r="N74" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O74" t="str">
-        <v>岩之浪人奥磐体内的精魄，杀死奥磬则有机会掉落的稀有材料。</v>
-      </c>
-    </row>
-    <row r="75">
+      <c r="N74" t="s">
+        <v>78</v>
+      </c>
+      <c r="O74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>72</v>
       </c>
@@ -3624,28 +5005,32 @@
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75" t="str"/>
-      <c r="I75" t="str"/>
-      <c r="J75" t="str">
-        <v>30000001:6;30000002:6;30000003:6;30000004:6;30000005:6;30000006:6;</v>
-      </c>
-      <c r="K75" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H75" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" t="s">
+        <v>33</v>
+      </c>
+      <c r="J75" t="s">
+        <v>152</v>
+      </c>
+      <c r="K75" t="s">
+        <v>131</v>
       </c>
       <c r="L75">
-        <v>0.0000092</v>
+        <v>9.2e-6</v>
       </c>
       <c r="M75">
         <v>1</v>
       </c>
-      <c r="N75" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O75" t="str">
-        <v>角斗先锋身上佩戴的徽章。</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="N75" t="s">
+        <v>78</v>
+      </c>
+      <c r="O75" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>73</v>
       </c>
@@ -3667,28 +5052,32 @@
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76" t="str"/>
-      <c r="I76" t="str"/>
-      <c r="J76" t="str">
-        <v>30000001:6;30000002:6;30000003:6;30000004:6;30000005:6;30000006:6;</v>
-      </c>
-      <c r="K76" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H76" t="s">
+        <v>33</v>
+      </c>
+      <c r="I76" t="s">
+        <v>33</v>
+      </c>
+      <c r="J76" t="s">
+        <v>152</v>
+      </c>
+      <c r="K76" t="s">
+        <v>131</v>
       </c>
       <c r="L76">
-        <v>0.0000092</v>
+        <v>9.2e-6</v>
       </c>
       <c r="M76">
         <v>1</v>
       </c>
-      <c r="N76" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O76" t="str">
-        <v>巨龙身上割下来的龙脊，十分稀有。</v>
-      </c>
-    </row>
-    <row r="77">
+      <c r="N76" t="s">
+        <v>78</v>
+      </c>
+      <c r="O76" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>74</v>
       </c>
@@ -3710,28 +5099,32 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77" t="str"/>
-      <c r="I77" t="str"/>
-      <c r="J77" t="str">
-        <v>30000001:6;30000002:6;30000003:6;30000004:6;30000005:6;30000006:6;</v>
-      </c>
-      <c r="K77" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H77" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" t="s">
+        <v>33</v>
+      </c>
+      <c r="J77" t="s">
+        <v>152</v>
+      </c>
+      <c r="K77" t="s">
+        <v>131</v>
       </c>
       <c r="L77">
-        <v>0.0000092</v>
+        <v>9.2e-6</v>
       </c>
       <c r="M77">
         <v>1</v>
       </c>
-      <c r="N77" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O77" t="str">
-        <v>从岩之浪人奥磐处获得的勇气。</v>
-      </c>
-    </row>
-    <row r="78">
+      <c r="N77" t="s">
+        <v>78</v>
+      </c>
+      <c r="O77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
         <v>75</v>
       </c>
@@ -3753,28 +5146,32 @@
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78" t="str"/>
-      <c r="I78" t="str"/>
-      <c r="J78" t="str">
-        <v>30000001:6;30000002:6;30000003:6;30000004:6;30000005:6;30000006:6;</v>
-      </c>
-      <c r="K78" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H78" t="s">
+        <v>33</v>
+      </c>
+      <c r="I78" t="s">
+        <v>33</v>
+      </c>
+      <c r="J78" t="s">
+        <v>152</v>
+      </c>
+      <c r="K78" t="s">
+        <v>131</v>
       </c>
       <c r="L78">
-        <v>0.0000092</v>
+        <v>9.2e-6</v>
       </c>
       <c r="M78">
         <v>1</v>
       </c>
-      <c r="N78" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O78" t="str">
-        <v>亡灵之城中死亡的魔法师留下的心脏。</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="N78" t="s">
+        <v>78</v>
+      </c>
+      <c r="O78" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>76</v>
       </c>
@@ -3796,28 +5193,32 @@
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="H79" t="str"/>
-      <c r="I79" t="str"/>
-      <c r="J79" t="str">
-        <v>30000001:2;30000002:2;30000003:2;30000004:2;30000005:2;30000006:2;</v>
-      </c>
-      <c r="K79" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H79" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" t="s">
+        <v>163</v>
+      </c>
+      <c r="K79" t="s">
+        <v>131</v>
       </c>
       <c r="L79">
-        <v>0.0000092</v>
+        <v>9.2e-6</v>
       </c>
       <c r="M79">
         <v>1</v>
       </c>
-      <c r="N79" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O79" t="str">
-        <v>这些全是2级宝石</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="N79" t="s">
+        <v>78</v>
+      </c>
+      <c r="O79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
         <v>77</v>
       </c>
@@ -3839,30 +5240,32 @@
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80" t="str"/>
+      <c r="H80" t="s">
+        <v>33</v>
+      </c>
       <c r="I80">
         <v>100</v>
       </c>
-      <c r="J80" t="str">
-        <v>30000001:5;30000002:5;30000003:5;30000004:5;30000005:5;30000006:5;</v>
-      </c>
-      <c r="K80" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="J80" t="s">
+        <v>128</v>
+      </c>
+      <c r="K80" t="s">
+        <v>131</v>
       </c>
       <c r="L80">
-        <v>0.000008</v>
+        <v>8e-6</v>
       </c>
       <c r="M80">
         <v>1</v>
       </c>
-      <c r="N80" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O80" t="str">
-        <v>技能升级道具，使用后可使技能获得提升。</v>
-      </c>
-    </row>
-    <row r="81">
+      <c r="N80" t="s">
+        <v>78</v>
+      </c>
+      <c r="O80" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
         <v>78</v>
       </c>
@@ -3884,28 +5287,32 @@
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="H81" t="str"/>
-      <c r="I81" t="str"/>
-      <c r="J81" t="str">
-        <v>30000001:6;30000002:6;30000003:6;30000004:6;30000005:6;30000006:6;</v>
-      </c>
-      <c r="K81" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H81" t="s">
+        <v>33</v>
+      </c>
+      <c r="I81" t="s">
+        <v>33</v>
+      </c>
+      <c r="J81" t="s">
+        <v>152</v>
+      </c>
+      <c r="K81" t="s">
+        <v>131</v>
       </c>
       <c r="L81">
-        <v>0.0000069</v>
+        <v>6.9e-6</v>
       </c>
       <c r="M81">
         <v>1</v>
       </c>
-      <c r="N81" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O81" t="str">
-        <v>可以打开装备上的第3个宝石空位</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="N81" t="s">
+        <v>78</v>
+      </c>
+      <c r="O81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
         <v>79</v>
       </c>
@@ -3927,28 +5334,32 @@
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82" t="str"/>
-      <c r="I82" t="str"/>
-      <c r="J82" t="str">
-        <v>30000001:3;30000002:3;30000003:3;30000004:3;30000005:3;30000006:3;</v>
-      </c>
-      <c r="K82" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H82" t="s">
+        <v>33</v>
+      </c>
+      <c r="I82" t="s">
+        <v>33</v>
+      </c>
+      <c r="J82" t="s">
+        <v>87</v>
+      </c>
+      <c r="K82" t="s">
+        <v>131</v>
       </c>
       <c r="L82">
-        <v>0.0000069</v>
+        <v>6.9e-6</v>
       </c>
       <c r="M82">
         <v>1</v>
       </c>
-      <c r="N82" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O82" t="str">
-        <v>这些全是3级宝石</v>
-      </c>
-    </row>
-    <row r="83">
+      <c r="N82" t="s">
+        <v>78</v>
+      </c>
+      <c r="O82" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
         <v>80</v>
       </c>
@@ -3970,28 +5381,32 @@
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83" t="str"/>
-      <c r="I83" t="str"/>
-      <c r="J83" t="str">
-        <v>30000001:3;30000002:3;30000003:3;30000004:3;30000005:3;30000006:3;</v>
-      </c>
-      <c r="K83" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H83" t="s">
+        <v>33</v>
+      </c>
+      <c r="I83" t="s">
+        <v>33</v>
+      </c>
+      <c r="J83" t="s">
+        <v>87</v>
+      </c>
+      <c r="K83" t="s">
+        <v>131</v>
       </c>
       <c r="L83">
-        <v>0.0000055</v>
+        <v>5.5e-6</v>
       </c>
       <c r="M83">
         <v>1</v>
       </c>
-      <c r="N83" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O83" t="str">
-        <v>这些全是4级宝石</v>
-      </c>
-    </row>
-    <row r="84">
+      <c r="N83" t="s">
+        <v>78</v>
+      </c>
+      <c r="O83" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
         <v>81</v>
       </c>
@@ -4013,28 +5428,32 @@
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="H84" t="str"/>
-      <c r="I84" t="str"/>
-      <c r="J84" t="str">
-        <v>30000001:3;30000002:3;30000003:3;30000004:3;30000005:3;30000006:3;</v>
-      </c>
-      <c r="K84" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H84" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84" t="s">
+        <v>33</v>
+      </c>
+      <c r="J84" t="s">
+        <v>87</v>
+      </c>
+      <c r="K84" t="s">
+        <v>131</v>
       </c>
       <c r="L84">
-        <v>0.0000046</v>
+        <v>4.6e-6</v>
       </c>
       <c r="M84">
         <v>1</v>
       </c>
-      <c r="N84" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O84" t="str">
-        <v>这些全是5级宝石</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="N84" t="s">
+        <v>78</v>
+      </c>
+      <c r="O84" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
         <v>82</v>
       </c>
@@ -4056,28 +5475,32 @@
       <c r="G85">
         <v>0</v>
       </c>
-      <c r="H85" t="str"/>
-      <c r="I85" t="str"/>
-      <c r="J85" t="str">
-        <v>30000001:8;30000002:8;30000003:8;30000004:8;30000005:8;30000006:8;</v>
-      </c>
-      <c r="K85" t="str">
-        <v>30000001:10:3;30000002:10:3;30000003:10:3;30000004:10:3;30000005:10:3;30000006:10:3;</v>
+      <c r="H85" t="s">
+        <v>33</v>
+      </c>
+      <c r="I85" t="s">
+        <v>33</v>
+      </c>
+      <c r="J85" t="s">
+        <v>169</v>
+      </c>
+      <c r="K85" t="s">
+        <v>131</v>
       </c>
       <c r="L85">
-        <v>0.000004</v>
+        <v>4e-6</v>
       </c>
       <c r="M85">
         <v>1</v>
       </c>
-      <c r="N85" t="str">
-        <v>远古遗迹</v>
-      </c>
-      <c r="O85" t="str">
-        <v>可以打开装备上的第4个宝石空位</v>
-      </c>
-    </row>
-    <row r="86">
+      <c r="N85" t="s">
+        <v>78</v>
+      </c>
+      <c r="O85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
         <v>83</v>
       </c>
@@ -4105,11 +5528,11 @@
       <c r="I86">
         <v>999.7475</v>
       </c>
-      <c r="J86" t="str">
-        <v>30000001:8;30000002:4;30000003:6;30000004:5;30000005:1;30000006:8;</v>
-      </c>
-      <c r="K86" t="str">
-        <v>30000001:10:6;30000002:6:2;30000003:8:4;30000004:7:3;30000005:3:1;30000006:10:6;</v>
+      <c r="J86" t="s">
+        <v>171</v>
+      </c>
+      <c r="K86" t="s">
+        <v>172</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -4117,14 +5540,14 @@
       <c r="M86">
         <v>6</v>
       </c>
-      <c r="N86" t="str">
-        <v>亚诺森林</v>
-      </c>
-      <c r="O86" t="str">
-        <v>不许叫我的外号，我真生气了！</v>
-      </c>
-    </row>
-    <row r="87">
+      <c r="N86" t="s">
+        <v>173</v>
+      </c>
+      <c r="O86" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
         <v>84</v>
       </c>
@@ -4143,30 +5566,36 @@
       <c r="F87">
         <v>0</v>
       </c>
-      <c r="G87" t="str">
-        <v>2:-0.00001;3:-0.00002;4:-0.00003;5:-0.00004;6:-0.00005;7:-0.00006;8:-0.00007;9:-0.00008;10:-0.00009</v>
-      </c>
-      <c r="H87" t="str"/>
-      <c r="I87" t="str"/>
-      <c r="J87" t="str">
-        <v>30000001:7;30000002:8;30000003:9;30000004:4;30000005:10;30000006:5;</v>
-      </c>
-      <c r="K87" t="str">
-        <v>30000001:10:4;30000002:10:5;30000003:10:6;30000004:7:1;30000005:10:7;30000006:8:2;</v>
+      <c r="G87" t="s">
+        <v>175</v>
+      </c>
+      <c r="H87" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J87" t="s">
+        <v>176</v>
+      </c>
+      <c r="K87" t="s">
+        <v>177</v>
       </c>
       <c r="L87">
-        <v>0.00004</v>
+        <v>4e-5</v>
       </c>
       <c r="M87">
         <v>11</v>
       </c>
-      <c r="N87" t="str">
-        <v>悬空城堡</v>
-      </c>
-      <c r="O87" t="str">
-        <v>是时候做出一些改变了。</v>
+      <c r="N87" t="s">
+        <v>36</v>
+      </c>
+      <c r="O87" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>